--- a/PetstoreAutomation/testData/Userdata.xlsx
+++ b/PetstoreAutomation/testData/Userdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YASH JADHAV\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC4DF2C-82E0-4C21-A42F-5319A66011F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8486F5-7C83-40A2-8BA4-161002082A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67D54D64-8570-4150-9D86-035DDF34B584}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>userId</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>U001</t>
-  </si>
-  <si>
     <t>yashj</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Test@1234</t>
   </si>
   <si>
-    <t>U002</t>
-  </si>
-  <si>
     <t>ashishp</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
   </si>
   <si>
     <t>Pass@5678</t>
-  </si>
-  <si>
-    <t>U003</t>
   </si>
   <si>
     <t>rohitk</t>
@@ -486,69 +477,69 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2">
         <v>9876543210</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
       <c r="G3">
         <v>9123456780</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
       <c r="G4">
         <v>9988776655</v>
